--- a/line1.xlsx
+++ b/line1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="383">
   <si>
     <t>车站</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>中山北路</t>
-  </si>
-  <si>
-    <t>--</t>
   </si>
   <si>
     <t>延长路</t>
@@ -1503,7 +1500,7 @@
   <dimension ref="A1:AS40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1594,130 +1591,130 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
         <v>36</v>
       </c>
-      <c r="E2" t="s">
-        <v>37</v>
-      </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H2" t="s">
         <v>70</v>
       </c>
-      <c r="H2" t="s">
-        <v>71</v>
-      </c>
       <c r="I2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K2" t="s">
         <v>99</v>
       </c>
-      <c r="K2" t="s">
-        <v>100</v>
-      </c>
       <c r="L2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="O2" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P2" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q2" t="s">
         <v>133</v>
       </c>
-      <c r="Q2" t="s">
-        <v>134</v>
-      </c>
       <c r="R2" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="S2" t="s">
+        <v>159</v>
+      </c>
+      <c r="T2" t="s">
         <v>160</v>
       </c>
-      <c r="T2" t="s">
-        <v>161</v>
-      </c>
       <c r="U2" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="V2" t="s">
+        <v>190</v>
+      </c>
+      <c r="W2" t="s">
         <v>191</v>
       </c>
-      <c r="W2" t="s">
-        <v>192</v>
-      </c>
       <c r="X2" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>190</v>
+      </c>
+      <c r="Z2" t="s">
         <v>191</v>
       </c>
-      <c r="Y2" t="s">
-        <v>191</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>192</v>
-      </c>
       <c r="AA2" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AB2" t="s">
+        <v>218</v>
+      </c>
+      <c r="AC2" t="s">
         <v>219</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AE2" t="s">
+        <v>219</v>
+      </c>
+      <c r="AF2" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="AE2" t="s">
-        <v>220</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>222</v>
-      </c>
       <c r="AG2" t="s">
+        <v>248</v>
+      </c>
+      <c r="AH2" t="s">
         <v>249</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="AI2" s="1" t="s">
-        <v>251</v>
-      </c>
       <c r="AJ2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AK2" t="s">
+        <v>287</v>
+      </c>
+      <c r="AL2" t="s">
         <v>288</v>
       </c>
-      <c r="AL2" t="s">
-        <v>289</v>
-      </c>
       <c r="AM2" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AN2" t="s">
+        <v>310</v>
+      </c>
+      <c r="AO2" t="s">
         <v>311</v>
       </c>
-      <c r="AO2" t="s">
-        <v>312</v>
-      </c>
       <c r="AP2" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AQ2" t="s">
+        <v>335</v>
+      </c>
+      <c r="AR2" t="s">
         <v>336</v>
       </c>
-      <c r="AR2" t="s">
-        <v>337</v>
-      </c>
       <c r="AS2" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="3" spans="1:45" x14ac:dyDescent="0.2">
@@ -1731,10 +1728,10 @@
         <v>0.22916666666666666</v>
       </c>
       <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" t="s">
         <v>38</v>
-      </c>
-      <c r="E3" t="s">
-        <v>39</v>
       </c>
       <c r="F3" s="1">
         <v>0.22777777777777777</v>
@@ -1746,14 +1743,12 @@
         <v>0.22222222222222221</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="1">
-        <v>0.26805555555555555</v>
-      </c>
+      <c r="K3" s="1"/>
       <c r="L3" s="1">
         <v>0.22708333333333333</v>
       </c>
@@ -1764,73 +1759,67 @@
         <v>0.24305555555555555</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="R3" s="1">
         <v>0.22916666666666666</v>
       </c>
       <c r="S3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="T3" s="1">
         <v>0.22916666666666666</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="V3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="X3" s="1">
         <v>0.22916666666666666</v>
       </c>
       <c r="Y3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AA3" s="1">
         <v>0.22916666666666666</v>
       </c>
       <c r="AB3" t="s">
+        <v>222</v>
+      </c>
+      <c r="AC3" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="AC3" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="AD3" s="1"/>
       <c r="AE3" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>23</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="AF3" s="1"/>
       <c r="AG3" t="s">
+        <v>251</v>
+      </c>
+      <c r="AH3" s="1" t="s">
         <v>252</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>253</v>
       </c>
       <c r="AI3" s="1">
         <v>0.23402777777777781</v>
       </c>
-      <c r="AJ3" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="AJ3" s="1"/>
       <c r="AK3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AL3" s="1">
         <v>0.22916666666666666</v>
@@ -1839,16 +1828,16 @@
         <v>0.28263888888888888</v>
       </c>
       <c r="AN3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AO3" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AP3" s="1">
         <v>0.22916666666666666</v>
       </c>
       <c r="AQ3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AR3" s="1">
         <v>0.24305555555555555</v>
@@ -1868,7 +1857,7 @@
         <v>0.23055555555555554</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E4" s="1">
         <v>0.25486111111111109</v>
@@ -1877,7 +1866,7 @@
         <v>0.2298611111111111</v>
       </c>
       <c r="G4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H4" s="1">
         <v>0.22361111111111109</v>
@@ -1886,7 +1875,7 @@
         <v>0.27083333333333331</v>
       </c>
       <c r="J4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K4" s="1">
         <v>0.22569444444444445</v>
@@ -1895,7 +1884,7 @@
         <v>0.22569444444444445</v>
       </c>
       <c r="M4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N4" s="1">
         <v>0.24444444444444446</v>
@@ -1904,7 +1893,7 @@
         <v>0.26597222222222222</v>
       </c>
       <c r="P4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q4" s="1">
         <v>0.2722222222222222</v>
@@ -1913,7 +1902,7 @@
         <v>0.23055555555555554</v>
       </c>
       <c r="S4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="T4" s="1">
         <v>0.23055555555555554</v>
@@ -1922,7 +1911,7 @@
         <v>0.28194444444444444</v>
       </c>
       <c r="V4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="W4" s="1">
         <v>0.27291666666666664</v>
@@ -1931,7 +1920,7 @@
         <v>0.23055555555555554</v>
       </c>
       <c r="Y4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Z4" s="1">
         <v>0.27291666666666664</v>
@@ -1940,22 +1929,18 @@
         <v>0.23055555555555554</v>
       </c>
       <c r="AB4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AC4" s="1">
         <v>0.23055555555555554</v>
       </c>
-      <c r="AD4" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="AD4" s="1"/>
       <c r="AE4" s="1">
         <v>0.26597222222222222</v>
       </c>
-      <c r="AF4" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="AF4" s="1"/>
       <c r="AG4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AH4" s="1">
         <v>0.2902777777777778</v>
@@ -1963,11 +1948,9 @@
       <c r="AI4" s="1">
         <v>0.23541666666666669</v>
       </c>
-      <c r="AJ4" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="AJ4" s="1"/>
       <c r="AK4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AL4" s="1">
         <v>0.23055555555555554</v>
@@ -1976,7 +1959,7 @@
         <v>0.28125</v>
       </c>
       <c r="AN4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AO4" s="1">
         <v>0.27361111111111108</v>
@@ -1985,7 +1968,7 @@
         <v>0.23055555555555554</v>
       </c>
       <c r="AQ4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AR4" s="1">
         <v>0.24583333333333335</v>
@@ -2005,7 +1988,7 @@
         <v>0.23194444444444443</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E5" s="1">
         <v>0.25347222222222221</v>
@@ -2014,7 +1997,7 @@
         <v>0.23124999999999998</v>
       </c>
       <c r="G5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H5" s="1">
         <v>0.22569444444444445</v>
@@ -2023,7 +2006,7 @@
         <v>0.26944444444444443</v>
       </c>
       <c r="J5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K5" s="1">
         <v>0.22777777777777777</v>
@@ -2032,7 +2015,7 @@
         <v>0.26805555555555555</v>
       </c>
       <c r="M5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N5" s="1">
         <v>0.24583333333333335</v>
@@ -2041,7 +2024,7 @@
         <v>0.26458333333333334</v>
       </c>
       <c r="P5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q5" s="1">
         <v>0.27083333333333331</v>
@@ -2050,7 +2033,7 @@
         <v>0.23194444444444443</v>
       </c>
       <c r="S5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="T5" s="1">
         <v>0.23333333333333331</v>
@@ -2059,7 +2042,7 @@
         <v>0.27916666666666667</v>
       </c>
       <c r="V5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="W5" s="1">
         <v>0.27152777777777776</v>
@@ -2068,7 +2051,7 @@
         <v>0.23194444444444443</v>
       </c>
       <c r="Y5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Z5" s="1">
         <v>0.27152777777777776</v>
@@ -2077,22 +2060,18 @@
         <v>0.23194444444444443</v>
       </c>
       <c r="AB5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AC5" s="1">
         <v>0.23194444444444443</v>
       </c>
-      <c r="AD5" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="AD5" s="1"/>
       <c r="AE5" s="1">
         <v>0.26458333333333334</v>
       </c>
-      <c r="AF5" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="AF5" s="1"/>
       <c r="AG5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AH5" s="1">
         <v>0.28750000000000003</v>
@@ -2100,11 +2079,9 @@
       <c r="AI5" s="1">
         <v>0.23819444444444446</v>
       </c>
-      <c r="AJ5" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="AJ5" s="1"/>
       <c r="AK5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AL5" s="1">
         <v>0.23263888888888887</v>
@@ -2113,7 +2090,7 @@
         <v>0.27986111111111112</v>
       </c>
       <c r="AN5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AO5" s="1">
         <v>0.27152777777777776</v>
@@ -2122,7 +2099,7 @@
         <v>0.23333333333333331</v>
       </c>
       <c r="AQ5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AR5" s="1">
         <v>0.24861111111111112</v>
@@ -2142,7 +2119,7 @@
         <v>0.23402777777777781</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E6" s="1">
         <v>0.24861111111111112</v>
@@ -2151,7 +2128,7 @@
         <v>0.23611111111111113</v>
       </c>
       <c r="G6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H6" s="1">
         <v>0.22708333333333333</v>
@@ -2160,7 +2137,7 @@
         <v>0.2673611111111111</v>
       </c>
       <c r="J6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K6" s="1">
         <v>0.22916666666666666</v>
@@ -2169,7 +2146,7 @@
         <v>0.26666666666666666</v>
       </c>
       <c r="M6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N6" s="1">
         <v>0.24861111111111112</v>
@@ -2178,7 +2155,7 @@
         <v>0.26250000000000001</v>
       </c>
       <c r="P6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q6" s="1">
         <v>0.26944444444444443</v>
@@ -2187,7 +2164,7 @@
         <v>0.23333333333333331</v>
       </c>
       <c r="S6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="T6" s="1">
         <v>0.23541666666666669</v>
@@ -2196,7 +2173,7 @@
         <v>0.27777777777777779</v>
       </c>
       <c r="V6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="W6" s="1">
         <v>0.27013888888888887</v>
@@ -2205,7 +2182,7 @@
         <v>0.23333333333333331</v>
       </c>
       <c r="Y6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="Z6" s="1">
         <v>0.27013888888888887</v>
@@ -2214,22 +2191,18 @@
         <v>0.23333333333333331</v>
       </c>
       <c r="AB6" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC6" s="1" t="s">
-        <v>23</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="AC6" s="1"/>
       <c r="AD6" s="1">
         <v>0.22569444444444445</v>
       </c>
-      <c r="AE6" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="AE6" s="1"/>
       <c r="AF6" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AG6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AH6" s="1">
         <v>0.28541666666666665</v>
@@ -2237,11 +2210,9 @@
       <c r="AI6" s="1">
         <v>0.23263888888888887</v>
       </c>
-      <c r="AJ6" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="AJ6" s="1"/>
       <c r="AK6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AL6" s="1">
         <v>0.23402777777777781</v>
@@ -2250,7 +2221,7 @@
         <v>0.27777777777777779</v>
       </c>
       <c r="AN6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AO6" s="1">
         <v>0.26944444444444443</v>
@@ -2259,7 +2230,7 @@
         <v>0.23541666666666669</v>
       </c>
       <c r="AQ6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AR6" s="1">
         <v>0.25138888888888888</v>
@@ -2279,7 +2250,7 @@
         <v>0.20486111111111113</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E7" s="1">
         <v>0.24652777777777779</v>
@@ -2288,7 +2259,7 @@
         <v>0.23750000000000002</v>
       </c>
       <c r="G7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H7" s="1">
         <v>0.22916666666666666</v>
@@ -2297,7 +2268,7 @@
         <v>0.26597222222222222</v>
       </c>
       <c r="J7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K7" s="1">
         <v>0.23055555555555554</v>
@@ -2306,7 +2277,7 @@
         <v>0.26458333333333334</v>
       </c>
       <c r="M7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N7" s="1">
         <v>0.25138888888888888</v>
@@ -2315,7 +2286,7 @@
         <v>0.25972222222222224</v>
       </c>
       <c r="P7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q7" s="1">
         <v>0.26805555555555555</v>
@@ -2324,7 +2295,7 @@
         <v>0.23541666666666669</v>
       </c>
       <c r="S7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="T7" s="1">
         <v>0.23750000000000002</v>
@@ -2333,7 +2304,7 @@
         <v>0.27569444444444446</v>
       </c>
       <c r="V7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W7" s="1">
         <v>0.2673611111111111</v>
@@ -2342,7 +2313,7 @@
         <v>0.23611111111111113</v>
       </c>
       <c r="Y7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Z7" s="1">
         <v>0.2673611111111111</v>
@@ -2351,22 +2322,18 @@
         <v>0.23611111111111113</v>
       </c>
       <c r="AB7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC7" s="1" t="s">
-        <v>23</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="AC7" s="1"/>
       <c r="AD7" s="1">
         <v>0.22638888888888889</v>
       </c>
-      <c r="AE7" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="AE7" s="1"/>
       <c r="AF7" s="1">
         <v>0.26458333333333334</v>
       </c>
       <c r="AG7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AH7" s="1">
         <v>0.28333333333333333</v>
@@ -2374,11 +2341,9 @@
       <c r="AI7" s="1">
         <v>0.23402777777777781</v>
       </c>
-      <c r="AJ7" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="AJ7" s="1"/>
       <c r="AK7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AL7" s="1">
         <v>0.23611111111111113</v>
@@ -2387,7 +2352,7 @@
         <v>0.27638888888888885</v>
       </c>
       <c r="AN7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AO7" s="1">
         <v>0.26805555555555555</v>
@@ -2396,7 +2361,7 @@
         <v>0.23680555555555557</v>
       </c>
       <c r="AQ7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AR7" s="1">
         <v>0.25416666666666665</v>
@@ -2416,7 +2381,7 @@
         <v>0.20625000000000002</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E8" s="1">
         <v>0.24513888888888888</v>
@@ -2425,7 +2390,7 @@
         <v>0.2388888888888889</v>
       </c>
       <c r="G8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H8" s="1">
         <v>0.23055555555555554</v>
@@ -2434,7 +2399,7 @@
         <v>0.2638888888888889</v>
       </c>
       <c r="J8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K8" s="1">
         <v>0.23263888888888887</v>
@@ -2443,7 +2408,7 @@
         <v>0.26319444444444445</v>
       </c>
       <c r="M8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N8" s="1">
         <v>0.25347222222222221</v>
@@ -2452,7 +2417,7 @@
         <v>0.25763888888888892</v>
       </c>
       <c r="P8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q8" s="1">
         <v>0.26597222222222222</v>
@@ -2461,7 +2426,7 @@
         <v>0.23680555555555557</v>
       </c>
       <c r="S8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="T8" s="1">
         <v>0.22916666666666666</v>
@@ -2470,7 +2435,7 @@
         <v>0.27361111111111108</v>
       </c>
       <c r="V8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W8" s="1">
         <v>0.26527777777777778</v>
@@ -2479,7 +2444,7 @@
         <v>0.23819444444444446</v>
       </c>
       <c r="Y8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Z8" s="1">
         <v>0.26527777777777778</v>
@@ -2488,22 +2453,18 @@
         <v>0.23819444444444446</v>
       </c>
       <c r="AB8" t="s">
-        <v>229</v>
-      </c>
-      <c r="AC8" s="1" t="s">
-        <v>23</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="AC8" s="1"/>
       <c r="AD8" s="1">
         <v>0.22847222222222222</v>
       </c>
-      <c r="AE8" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="AE8" s="1"/>
       <c r="AF8" s="1">
         <v>0.26250000000000001</v>
       </c>
       <c r="AG8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AH8" s="1">
         <v>0.28125</v>
@@ -2511,11 +2472,9 @@
       <c r="AI8" s="1">
         <v>0.23611111111111113</v>
       </c>
-      <c r="AJ8" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="AJ8" s="1"/>
       <c r="AK8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AL8" s="1">
         <v>0.23750000000000002</v>
@@ -2524,7 +2483,7 @@
         <v>0.27430555555555552</v>
       </c>
       <c r="AN8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AO8" s="1">
         <v>0.26597222222222222</v>
@@ -2533,7 +2492,7 @@
         <v>0.2388888888888889</v>
       </c>
       <c r="AQ8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AR8" s="1">
         <v>0.25625000000000003</v>
@@ -2553,7 +2512,7 @@
         <v>0.20833333333333334</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E9" s="1">
         <v>0.24305555555555555</v>
@@ -2562,7 +2521,7 @@
         <v>0.24097222222222223</v>
       </c>
       <c r="G9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H9" s="1">
         <v>0.23263888888888887</v>
@@ -2571,7 +2530,7 @@
         <v>0.26250000000000001</v>
       </c>
       <c r="J9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K9" s="1">
         <v>0.23402777777777781</v>
@@ -2580,7 +2539,7 @@
         <v>0.26180555555555557</v>
       </c>
       <c r="M9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N9" s="1">
         <v>0.25486111111111109</v>
@@ -2589,7 +2548,7 @@
         <v>0.25625000000000003</v>
       </c>
       <c r="P9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q9" s="1">
         <v>0.26458333333333334</v>
@@ -2598,7 +2557,7 @@
         <v>0.2388888888888889</v>
       </c>
       <c r="S9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="T9" s="1">
         <v>0.23055555555555554</v>
@@ -2607,7 +2566,7 @@
         <v>0.27152777777777776</v>
       </c>
       <c r="V9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="W9" s="1">
         <v>0.26319444444444445</v>
@@ -2616,7 +2575,7 @@
         <v>0.24097222222222223</v>
       </c>
       <c r="Y9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Z9" s="1">
         <v>0.26319444444444445</v>
@@ -2625,22 +2584,18 @@
         <v>0.24097222222222223</v>
       </c>
       <c r="AB9" t="s">
-        <v>230</v>
-      </c>
-      <c r="AC9" s="1" t="s">
-        <v>23</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="AC9" s="1"/>
       <c r="AD9" s="1">
         <v>0.23055555555555554</v>
       </c>
-      <c r="AE9" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="AE9" s="1"/>
       <c r="AF9" s="1">
         <v>0.26041666666666669</v>
       </c>
       <c r="AG9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AH9" s="1">
         <v>0.27777777777777779</v>
@@ -2648,11 +2603,9 @@
       <c r="AI9" s="1">
         <v>0.23958333333333334</v>
       </c>
-      <c r="AJ9" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="AJ9" s="1"/>
       <c r="AK9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AL9" s="1">
         <v>0.2388888888888889</v>
@@ -2661,7 +2614,7 @@
         <v>0.27291666666666664</v>
       </c>
       <c r="AN9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AO9" s="1">
         <v>0.2638888888888889</v>
@@ -2670,7 +2623,7 @@
         <v>0.24166666666666667</v>
       </c>
       <c r="AQ9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AR9" s="1">
         <v>0.2590277777777778</v>
@@ -2690,7 +2643,7 @@
         <v>0.20972222222222223</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E10" s="1">
         <v>0.24097222222222223</v>
@@ -2699,7 +2652,7 @@
         <v>0.24305555555555555</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H10" s="1">
         <v>0.23402777777777781</v>
@@ -2708,7 +2661,7 @@
         <v>0.26041666666666669</v>
       </c>
       <c r="J10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K10" s="1">
         <v>0.23611111111111113</v>
@@ -2717,7 +2670,7 @@
         <v>0.25972222222222224</v>
       </c>
       <c r="M10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N10" s="1">
         <v>0.25833333333333336</v>
@@ -2726,7 +2679,7 @@
         <v>0.25347222222222221</v>
       </c>
       <c r="P10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Q10" s="1">
         <v>0.26250000000000001</v>
@@ -2735,7 +2688,7 @@
         <v>0.24027777777777778</v>
       </c>
       <c r="S10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="T10" s="1">
         <v>0.23194444444444443</v>
@@ -2744,7 +2697,7 @@
         <v>0.26944444444444443</v>
       </c>
       <c r="V10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="W10" s="1">
         <v>0.26111111111111113</v>
@@ -2753,7 +2706,7 @@
         <v>0.24236111111111111</v>
       </c>
       <c r="Y10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="Z10" s="1">
         <v>0.26111111111111113</v>
@@ -2762,7 +2715,7 @@
         <v>0.24236111111111111</v>
       </c>
       <c r="AB10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AC10" s="1">
         <v>0.23194444444444443</v>
@@ -2777,16 +2730,14 @@
         <v>0.2590277777777778</v>
       </c>
       <c r="AG10" t="s">
-        <v>260</v>
-      </c>
-      <c r="AH10" s="1" t="s">
-        <v>23</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="AH10" s="1"/>
       <c r="AI10" s="1">
         <v>0.23333333333333331</v>
       </c>
       <c r="AJ10" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AK10" t="s">
         <v>10</v>
@@ -2798,7 +2749,7 @@
         <v>0.27152777777777776</v>
       </c>
       <c r="AN10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AO10" s="1">
         <v>0.26180555555555557</v>
@@ -2807,7 +2758,7 @@
         <v>0.24305555555555555</v>
       </c>
       <c r="AQ10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AR10" s="1">
         <v>0.26250000000000001</v>
@@ -2827,7 +2778,7 @@
         <v>0.21111111111111111</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E11" s="1">
         <v>0.2388888888888889</v>
@@ -2836,7 +2787,7 @@
         <v>0.24444444444444446</v>
       </c>
       <c r="G11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H11" s="1">
         <v>0.23611111111111113</v>
@@ -2845,7 +2796,7 @@
         <v>0.2590277777777778</v>
       </c>
       <c r="J11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K11" s="1">
         <v>0.23750000000000002</v>
@@ -2854,7 +2805,7 @@
         <v>0.25763888888888892</v>
       </c>
       <c r="M11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N11" s="1">
         <v>0.26250000000000001</v>
@@ -2863,7 +2814,7 @@
         <v>0.24930555555555556</v>
       </c>
       <c r="P11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q11" s="1">
         <v>0.26111111111111113</v>
@@ -2872,7 +2823,7 @@
         <v>0.24236111111111111</v>
       </c>
       <c r="S11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T11" s="1">
         <v>0.23333333333333331</v>
@@ -2881,7 +2832,7 @@
         <v>0.26805555555555555</v>
       </c>
       <c r="V11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="W11" s="1">
         <v>0.25972222222222224</v>
@@ -2890,7 +2841,7 @@
         <v>0.24374999999999999</v>
       </c>
       <c r="Y11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Z11" s="1">
         <v>0.25972222222222224</v>
@@ -2899,7 +2850,7 @@
         <v>0.24374999999999999</v>
       </c>
       <c r="AB11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AC11" s="1">
         <v>0.23333333333333331</v>
@@ -2914,11 +2865,9 @@
         <v>0.25763888888888892</v>
       </c>
       <c r="AG11" t="s">
-        <v>262</v>
-      </c>
-      <c r="AH11" s="1" t="s">
-        <v>23</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="AH11" s="1"/>
       <c r="AI11" s="1">
         <v>0.23472222222222219</v>
       </c>
@@ -2926,7 +2875,7 @@
         <v>0.27638888888888885</v>
       </c>
       <c r="AK11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AL11" s="1">
         <v>0.24236111111111111</v>
@@ -2935,7 +2884,7 @@
         <v>0.27013888888888887</v>
       </c>
       <c r="AN11" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AO11" s="1">
         <v>0.25972222222222224</v>
@@ -2944,7 +2893,7 @@
         <v>0.24513888888888888</v>
       </c>
       <c r="AQ11" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AR11" s="1">
         <v>0.26666666666666666</v>
@@ -2964,7 +2913,7 @@
         <v>0.21249999999999999</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E12" s="1">
         <v>0.23680555555555557</v>
@@ -2973,7 +2922,7 @@
         <v>0.24652777777777779</v>
       </c>
       <c r="G12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H12" s="1">
         <v>0.23750000000000002</v>
@@ -2991,7 +2940,7 @@
         <v>0.25555555555555559</v>
       </c>
       <c r="M12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N12" s="1">
         <v>0.26458333333333334</v>
@@ -3000,7 +2949,7 @@
         <v>0.24722222222222223</v>
       </c>
       <c r="P12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q12" s="1">
         <v>0.2590277777777778</v>
@@ -3009,7 +2958,7 @@
         <v>0.24444444444444446</v>
       </c>
       <c r="S12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="T12" s="1">
         <v>0.23541666666666669</v>
@@ -3018,7 +2967,7 @@
         <v>0.26666666666666666</v>
       </c>
       <c r="V12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="W12" s="1">
         <v>0.25833333333333336</v>
@@ -3027,7 +2976,7 @@
         <v>0.24513888888888888</v>
       </c>
       <c r="Y12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Z12" s="1">
         <v>0.25833333333333336</v>
@@ -3036,7 +2985,7 @@
         <v>0.24513888888888888</v>
       </c>
       <c r="AB12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AC12" s="1">
         <v>0.23472222222222219</v>
@@ -3051,11 +3000,9 @@
         <v>0.25555555555555559</v>
       </c>
       <c r="AG12" t="s">
-        <v>263</v>
-      </c>
-      <c r="AH12" s="1" t="s">
-        <v>23</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="AH12" s="1"/>
       <c r="AI12" s="1">
         <v>0.23750000000000002</v>
       </c>
@@ -3063,7 +3010,7 @@
         <v>0.27361111111111108</v>
       </c>
       <c r="AK12" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AL12" s="1">
         <v>0.24374999999999999</v>
@@ -3072,7 +3019,7 @@
         <v>0.26805555555555555</v>
       </c>
       <c r="AN12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AO12" s="1">
         <v>0.25833333333333336</v>
@@ -3081,7 +3028,7 @@
         <v>0.24652777777777779</v>
       </c>
       <c r="AQ12" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AR12" s="1">
         <v>0.27013888888888887</v>
@@ -3101,7 +3048,7 @@
         <v>0.21388888888888891</v>
       </c>
       <c r="D13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E13" s="1">
         <v>0.23541666666666669</v>
@@ -3110,7 +3057,7 @@
         <v>0.24861111111111112</v>
       </c>
       <c r="G13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H13" s="1">
         <v>0.23958333333333334</v>
@@ -3119,7 +3066,7 @@
         <v>0.25555555555555559</v>
       </c>
       <c r="J13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K13" s="1">
         <v>0.24236111111111111</v>
@@ -3128,7 +3075,7 @@
         <v>0.25347222222222221</v>
       </c>
       <c r="M13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N13" s="1">
         <v>0.26666666666666666</v>
@@ -3137,7 +3084,7 @@
         <v>0.24444444444444446</v>
       </c>
       <c r="P13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Q13" s="1">
         <v>0.25763888888888892</v>
@@ -3146,7 +3093,7 @@
         <v>0.24583333333333335</v>
       </c>
       <c r="S13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="T13" s="1">
         <v>0.23680555555555557</v>
@@ -3155,7 +3102,7 @@
         <v>0.26458333333333334</v>
       </c>
       <c r="V13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="W13" s="1">
         <v>0.25694444444444448</v>
@@ -3164,7 +3111,7 @@
         <v>0.24652777777777779</v>
       </c>
       <c r="Y13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Z13" s="1">
         <v>0.25694444444444448</v>
@@ -3173,7 +3120,7 @@
         <v>0.24652777777777779</v>
       </c>
       <c r="AB13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AC13" s="1">
         <v>0.23611111111111113</v>
@@ -3188,7 +3135,7 @@
         <v>0.25486111111111109</v>
       </c>
       <c r="AG13" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AH13" s="1">
         <v>0.27499999999999997</v>
@@ -3200,7 +3147,7 @@
         <v>0.27152777777777776</v>
       </c>
       <c r="AK13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AL13" s="1">
         <v>0.24583333333333335</v>
@@ -3209,7 +3156,7 @@
         <v>0.26597222222222222</v>
       </c>
       <c r="AN13" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AO13" s="1">
         <v>0.26319444444444445</v>
@@ -3218,7 +3165,7 @@
         <v>0.24791666666666667</v>
       </c>
       <c r="AQ13" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AR13" s="1">
         <v>0.27638888888888885</v>
@@ -3247,7 +3194,7 @@
         <v>0.25069444444444444</v>
       </c>
       <c r="G14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H14" s="1">
         <v>0.24097222222222223</v>
@@ -3256,7 +3203,7 @@
         <v>0.25347222222222221</v>
       </c>
       <c r="J14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K14" s="1">
         <v>0.24444444444444446</v>
@@ -3265,7 +3212,7 @@
         <v>0.25138888888888888</v>
       </c>
       <c r="M14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N14" s="1">
         <v>0.26944444444444443</v>
@@ -3274,7 +3221,7 @@
         <v>0.24236111111111111</v>
       </c>
       <c r="P14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q14" s="1">
         <v>0.25555555555555559</v>
@@ -3283,7 +3230,7 @@
         <v>0.24791666666666667</v>
       </c>
       <c r="S14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="T14" s="1">
         <v>0.23819444444444446</v>
@@ -3292,7 +3239,7 @@
         <v>0.26319444444444445</v>
       </c>
       <c r="V14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="W14" s="1">
         <v>0.25555555555555559</v>
@@ -3301,7 +3248,7 @@
         <v>0.24861111111111112</v>
       </c>
       <c r="Y14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Z14" s="1">
         <v>0.25555555555555559</v>
@@ -3310,7 +3257,7 @@
         <v>0.24861111111111112</v>
       </c>
       <c r="AB14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AC14" s="1">
         <v>0.23750000000000002</v>
@@ -3325,7 +3272,7 @@
         <v>0.25347222222222221</v>
       </c>
       <c r="AG14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AH14" s="1">
         <v>0.27291666666666664</v>
@@ -3337,7 +3284,7 @@
         <v>0.26944444444444443</v>
       </c>
       <c r="AK14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AL14" s="1">
         <v>0.24791666666666667</v>
@@ -3355,7 +3302,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ14" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AR14" s="1">
         <v>0.28055555555555556</v>
@@ -3375,7 +3322,7 @@
         <v>0.21805555555555556</v>
       </c>
       <c r="D15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E15" s="1">
         <v>0.23194444444444443</v>
@@ -3393,7 +3340,7 @@
         <v>0.25138888888888888</v>
       </c>
       <c r="J15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K15" s="1">
         <v>0.24583333333333335</v>
@@ -3402,7 +3349,7 @@
         <v>0.25</v>
       </c>
       <c r="M15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N15" s="1">
         <v>0.27083333333333331</v>
@@ -3411,7 +3358,7 @@
         <v>0.24027777777777778</v>
       </c>
       <c r="P15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Q15" s="1">
         <v>0.25416666666666665</v>
@@ -3420,7 +3367,7 @@
         <v>0.24930555555555556</v>
       </c>
       <c r="S15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="T15" s="1">
         <v>0.23958333333333334</v>
@@ -3429,7 +3376,7 @@
         <v>0.26180555555555557</v>
       </c>
       <c r="V15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="W15" s="1">
         <v>0.25347222222222221</v>
@@ -3438,7 +3385,7 @@
         <v>0.25</v>
       </c>
       <c r="Y15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Z15" s="1">
         <v>0.25347222222222221</v>
@@ -3447,7 +3394,7 @@
         <v>0.25</v>
       </c>
       <c r="AB15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AC15" s="1">
         <v>0.23958333333333334</v>
@@ -3462,7 +3409,7 @@
         <v>0.25138888888888888</v>
       </c>
       <c r="AG15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AH15" s="1">
         <v>0.26805555555555555</v>
@@ -3474,7 +3421,7 @@
         <v>0.26458333333333334</v>
       </c>
       <c r="AK15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AL15" s="1">
         <v>0.24930555555555556</v>
@@ -3483,7 +3430,7 @@
         <v>0.26250000000000001</v>
       </c>
       <c r="AN15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AO15" s="1">
         <v>0.25972222222222224</v>
@@ -3492,10 +3439,10 @@
         <v>0.25069444444444444</v>
       </c>
       <c r="AQ15" t="s">
+        <v>346</v>
+      </c>
+      <c r="AR15" s="1" t="s">
         <v>347</v>
-      </c>
-      <c r="AR15" s="1" t="s">
-        <v>348</v>
       </c>
       <c r="AS15" s="1">
         <v>0.25</v>
@@ -3512,7 +3459,7 @@
         <v>0.21875</v>
       </c>
       <c r="D16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E16" s="1">
         <v>0.2298611111111111</v>
@@ -3521,7 +3468,7 @@
         <v>0.25416666666666665</v>
       </c>
       <c r="G16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H16" s="1">
         <v>0.24583333333333335</v>
@@ -3530,7 +3477,7 @@
         <v>0.24930555555555556</v>
       </c>
       <c r="J16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K16" s="1">
         <v>0.24722222222222223</v>
@@ -3539,7 +3486,7 @@
         <v>0.24791666666666667</v>
       </c>
       <c r="M16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N16" s="1">
         <v>0.27291666666666664</v>
@@ -3548,7 +3495,7 @@
         <v>0.2388888888888889</v>
       </c>
       <c r="P16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q16" s="1">
         <v>0.25208333333333333</v>
@@ -3557,7 +3504,7 @@
         <v>0.25069444444444444</v>
       </c>
       <c r="S16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="T16" s="1">
         <v>0.24097222222222223</v>
@@ -3566,7 +3513,7 @@
         <v>0.26041666666666669</v>
       </c>
       <c r="V16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="W16" s="1">
         <v>0.25208333333333333</v>
@@ -3575,7 +3522,7 @@
         <v>0.25138888888888888</v>
       </c>
       <c r="Y16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Z16" s="1">
         <v>0.25208333333333333</v>
@@ -3584,7 +3531,7 @@
         <v>0.25138888888888888</v>
       </c>
       <c r="AB16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AC16" s="1">
         <v>0.24097222222222223</v>
@@ -3599,7 +3546,7 @@
         <v>0.25</v>
       </c>
       <c r="AG16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AH16" s="1">
         <v>0.26527777777777778</v>
@@ -3620,7 +3567,7 @@
         <v>0.26111111111111113</v>
       </c>
       <c r="AN16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AO16" s="1">
         <v>0.25833333333333336</v>
@@ -3640,7 +3587,7 @@
         <v>0.22013888888888888</v>
       </c>
       <c r="D17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E17" s="1">
         <v>0.22847222222222222</v>
@@ -3649,7 +3596,7 @@
         <v>0.25555555555555559</v>
       </c>
       <c r="G17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H17" s="1">
         <v>0.24722222222222223</v>
@@ -3658,7 +3605,7 @@
         <v>0.24791666666666667</v>
       </c>
       <c r="J17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K17" s="1">
         <v>0.24861111111111112</v>
@@ -3667,16 +3614,16 @@
         <v>0.24652777777777779</v>
       </c>
       <c r="M17" t="s">
+        <v>130</v>
+      </c>
+      <c r="N17" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="O17" s="1">
         <v>0.23750000000000002</v>
       </c>
       <c r="P17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Q17" s="1">
         <v>0.25069444444444444</v>
@@ -3685,7 +3632,7 @@
         <v>0.25208333333333333</v>
       </c>
       <c r="S17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="T17" s="1">
         <v>0.24236111111111111</v>
@@ -3694,7 +3641,7 @@
         <v>0.2590277777777778</v>
       </c>
       <c r="V17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="W17" s="1">
         <v>0.25069444444444444</v>
@@ -3703,7 +3650,7 @@
         <v>0.25277777777777777</v>
       </c>
       <c r="Y17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Z17" s="1">
         <v>0.25069444444444444</v>
@@ -3727,7 +3674,7 @@
         <v>0.24861111111111112</v>
       </c>
       <c r="AG17" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AH17" s="1">
         <v>0.26319444444444445</v>
@@ -3739,7 +3686,7 @@
         <v>0.25972222222222224</v>
       </c>
       <c r="AK17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AL17" s="1">
         <v>0.25277777777777777</v>
@@ -3748,7 +3695,7 @@
         <v>0.2590277777777778</v>
       </c>
       <c r="AN17" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AO17" s="1">
         <v>0.25694444444444448</v>
@@ -3768,7 +3715,7 @@
         <v>21</v>
       </c>
       <c r="D18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E18" s="1">
         <v>0.22708333333333333</v>
@@ -3777,7 +3724,7 @@
         <v>0.25763888888888892</v>
       </c>
       <c r="G18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H18" s="1">
         <v>0.24861111111111112</v>
@@ -3786,7 +3733,7 @@
         <v>0.24583333333333335</v>
       </c>
       <c r="J18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K18" s="1">
         <v>0.25</v>
@@ -3795,7 +3742,7 @@
         <v>0.24513888888888888</v>
       </c>
       <c r="P18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q18" s="1">
         <v>0.24930555555555556</v>
@@ -3804,7 +3751,7 @@
         <v>0.25416666666666665</v>
       </c>
       <c r="S18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="T18" s="1">
         <v>0.24444444444444446</v>
@@ -3831,7 +3778,7 @@
         <v>0.25416666666666665</v>
       </c>
       <c r="AB18" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AC18" s="1">
         <v>0.24444444444444446</v>
@@ -3846,7 +3793,7 @@
         <v>0.24652777777777779</v>
       </c>
       <c r="AG18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AH18" s="1">
         <v>0.26180555555555557</v>
@@ -3867,7 +3814,7 @@
         <v>0.25694444444444448</v>
       </c>
       <c r="AN18" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AO18" s="1">
         <v>0.25486111111111109</v>
@@ -3883,11 +3830,8 @@
       <c r="B19" s="1">
         <v>0.23958333333333334</v>
       </c>
-      <c r="C19" t="s">
-        <v>23</v>
-      </c>
       <c r="D19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E19" s="1">
         <v>0.22500000000000001</v>
@@ -3896,7 +3840,7 @@
         <v>0.25972222222222224</v>
       </c>
       <c r="G19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H19" s="1">
         <v>0.25069444444444444</v>
@@ -3905,7 +3849,7 @@
         <v>0.24444444444444446</v>
       </c>
       <c r="J19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K19" s="1">
         <v>0.25208333333333333</v>
@@ -3914,7 +3858,7 @@
         <v>0.24305555555555555</v>
       </c>
       <c r="P19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q19" s="1">
         <v>0.24722222222222223</v>
@@ -3923,7 +3867,7 @@
         <v>0.25555555555555559</v>
       </c>
       <c r="S19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="T19" s="1">
         <v>0.24652777777777779</v>
@@ -3932,7 +3876,7 @@
         <v>0.25555555555555559</v>
       </c>
       <c r="V19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="W19" s="1">
         <v>0.24791666666666667</v>
@@ -3941,7 +3885,7 @@
         <v>0.25555555555555559</v>
       </c>
       <c r="Y19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Z19" s="1">
         <v>0.24791666666666667</v>
@@ -3950,7 +3894,7 @@
         <v>0.25555555555555559</v>
       </c>
       <c r="AB19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AC19" s="1">
         <v>0.24583333333333335</v>
@@ -3965,7 +3909,7 @@
         <v>0.24513888888888888</v>
       </c>
       <c r="AG19" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AH19" s="1">
         <v>0.26041666666666669</v>
@@ -3977,7 +3921,7 @@
         <v>0.25694444444444448</v>
       </c>
       <c r="AK19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AL19" s="1">
         <v>0.24791666666666667</v>
@@ -3986,7 +3930,7 @@
         <v>0.25486111111111109</v>
       </c>
       <c r="AN19" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AO19" s="1">
         <v>0.25347222222222221</v>
@@ -3997,16 +3941,13 @@
     </row>
     <row r="20" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" s="1">
         <v>0.24166666666666667</v>
       </c>
-      <c r="C20" t="s">
-        <v>23</v>
-      </c>
       <c r="D20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E20" s="1">
         <v>0.22291666666666665</v>
@@ -4015,7 +3956,7 @@
         <v>0.26111111111111113</v>
       </c>
       <c r="G20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H20" s="1">
         <v>0.25208333333333333</v>
@@ -4024,7 +3965,7 @@
         <v>0.24305555555555555</v>
       </c>
       <c r="J20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K20" s="1">
         <v>0.25347222222222221</v>
@@ -4033,7 +3974,7 @@
         <v>0.24166666666666667</v>
       </c>
       <c r="P20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Q20" s="1">
         <v>0.24583333333333335</v>
@@ -4042,7 +3983,7 @@
         <v>0.25763888888888892</v>
       </c>
       <c r="S20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="T20" s="1">
         <v>0.24791666666666667</v>
@@ -4051,7 +3992,7 @@
         <v>0.25416666666666665</v>
       </c>
       <c r="V20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="W20" s="1">
         <v>0.24652777777777779</v>
@@ -4060,7 +4001,7 @@
         <v>0.25694444444444448</v>
       </c>
       <c r="Y20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="Z20" s="1">
         <v>0.24652777777777779</v>
@@ -4069,7 +4010,7 @@
         <v>0.25694444444444448</v>
       </c>
       <c r="AB20" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AC20" s="1">
         <v>0.24791666666666667</v>
@@ -4084,7 +4025,7 @@
         <v>0.24374999999999999</v>
       </c>
       <c r="AG20" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AH20" s="1">
         <v>0.25833333333333336</v>
@@ -4096,7 +4037,7 @@
         <v>0.25486111111111109</v>
       </c>
       <c r="AK20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AL20" s="1">
         <v>0.25</v>
@@ -4105,7 +4046,7 @@
         <v>0.25347222222222221</v>
       </c>
       <c r="AN20" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AO20" s="1">
         <v>0.25208333333333333</v>
@@ -4116,16 +4057,13 @@
     </row>
     <row r="21" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B21" s="1">
         <v>0.24305555555555555</v>
       </c>
-      <c r="C21" t="s">
-        <v>23</v>
-      </c>
       <c r="D21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E21" s="1">
         <v>0.22222222222222221</v>
@@ -4134,7 +4072,7 @@
         <v>0.26250000000000001</v>
       </c>
       <c r="G21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H21" s="1">
         <v>0.25416666666666665</v>
@@ -4143,7 +4081,7 @@
         <v>0.24097222222222223</v>
       </c>
       <c r="J21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K21" s="1">
         <v>0.25486111111111109</v>
@@ -4152,7 +4090,7 @@
         <v>0.24027777777777778</v>
       </c>
       <c r="P21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Q21" s="1">
         <v>0.24444444444444446</v>
@@ -4161,7 +4099,7 @@
         <v>0.2590277777777778</v>
       </c>
       <c r="S21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="T21" s="1">
         <v>0.24930555555555556</v>
@@ -4170,7 +4108,7 @@
         <v>0.25208333333333333</v>
       </c>
       <c r="V21" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="W21" s="1">
         <v>0.24513888888888888</v>
@@ -4179,7 +4117,7 @@
         <v>0.2590277777777778</v>
       </c>
       <c r="Y21" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Z21" s="1">
         <v>0.24513888888888888</v>
@@ -4188,7 +4126,7 @@
         <v>0.2590277777777778</v>
       </c>
       <c r="AB21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AC21" s="1">
         <v>0.24930555555555556</v>
@@ -4203,7 +4141,7 @@
         <v>0.24236111111111111</v>
       </c>
       <c r="AG21" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AH21" s="1">
         <v>0.25694444444444448</v>
@@ -4215,7 +4153,7 @@
         <v>0.25347222222222221</v>
       </c>
       <c r="AK21" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AL21" s="1">
         <v>0.25208333333333333</v>
@@ -4224,7 +4162,7 @@
         <v>0.25069444444444444</v>
       </c>
       <c r="AN21" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AO21" s="1">
         <v>0.25</v>
@@ -4235,16 +4173,13 @@
     </row>
     <row r="22" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B22" s="1">
         <v>0.24444444444444446</v>
       </c>
-      <c r="C22" t="s">
-        <v>23</v>
-      </c>
       <c r="D22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E22" s="1">
         <v>0.23124999999999998</v>
@@ -4253,7 +4188,7 @@
         <v>0.26527777777777778</v>
       </c>
       <c r="G22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H22" s="1">
         <v>0.25555555555555559</v>
@@ -4262,7 +4197,7 @@
         <v>0.2388888888888889</v>
       </c>
       <c r="J22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K22" s="1">
         <v>0.25694444444444448</v>
@@ -4271,7 +4206,7 @@
         <v>0.2388888888888889</v>
       </c>
       <c r="P22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Q22" s="1">
         <v>0.24236111111111111</v>
@@ -4289,7 +4224,7 @@
         <v>0.25069444444444444</v>
       </c>
       <c r="V22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="W22" s="1">
         <v>0.24305555555555555</v>
@@ -4298,7 +4233,7 @@
         <v>0.26041666666666669</v>
       </c>
       <c r="Y22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Z22" s="1">
         <v>0.24305555555555555</v>
@@ -4307,7 +4242,7 @@
         <v>0.26041666666666669</v>
       </c>
       <c r="AB22" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AC22" s="1">
         <v>0.25069444444444444</v>
@@ -4322,7 +4257,7 @@
         <v>0.24027777777777778</v>
       </c>
       <c r="AG22" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AH22" s="1">
         <v>0.25555555555555559</v>
@@ -4334,7 +4269,7 @@
         <v>0.25208333333333333</v>
       </c>
       <c r="AK22" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AL22" s="1">
         <v>0.25347222222222221</v>
@@ -4343,7 +4278,7 @@
         <v>0.24930555555555556</v>
       </c>
       <c r="AN22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AO22" s="1">
         <v>0.24791666666666667</v>
@@ -4354,16 +4289,13 @@
     </row>
     <row r="23" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B23" s="1">
         <v>0.24652777777777779</v>
       </c>
-      <c r="C23" t="s">
-        <v>23</v>
-      </c>
       <c r="D23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E23" s="1">
         <v>0.2298611111111111</v>
@@ -4372,7 +4304,7 @@
         <v>0.2673611111111111</v>
       </c>
       <c r="G23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H23" s="1">
         <v>0.25763888888888892</v>
@@ -4381,7 +4313,7 @@
         <v>0.23680555555555557</v>
       </c>
       <c r="J23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K23" s="1">
         <v>0.2590277777777778</v>
@@ -4390,7 +4322,7 @@
         <v>0.23611111111111113</v>
       </c>
       <c r="P23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q23" s="1">
         <v>0.24097222222222223</v>
@@ -4399,7 +4331,7 @@
         <v>0.26180555555555557</v>
       </c>
       <c r="S23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="T23" s="1">
         <v>0.25277777777777777</v>
@@ -4408,7 +4340,7 @@
         <v>0.24861111111111112</v>
       </c>
       <c r="V23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="W23" s="1">
         <v>0.24166666666666667</v>
@@ -4417,7 +4349,7 @@
         <v>0.26250000000000001</v>
       </c>
       <c r="Y23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Z23" s="1">
         <v>0.24166666666666667</v>
@@ -4426,7 +4358,7 @@
         <v>0.26250000000000001</v>
       </c>
       <c r="AB23" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AC23" s="1">
         <v>0.25208333333333333</v>
@@ -4441,7 +4373,7 @@
         <v>0.2388888888888889</v>
       </c>
       <c r="AG23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH23" s="1">
         <v>0.25416666666666665</v>
@@ -4453,7 +4385,7 @@
         <v>0.25069444444444444</v>
       </c>
       <c r="AK23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AL23" s="1">
         <v>0.25486111111111109</v>
@@ -4462,7 +4394,7 @@
         <v>0.24791666666666667</v>
       </c>
       <c r="AN23" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AO23" s="1">
         <v>0.24652777777777779</v>
@@ -4473,16 +4405,13 @@
     </row>
     <row r="24" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B24" s="1">
         <v>0.24861111111111112</v>
       </c>
-      <c r="C24" t="s">
-        <v>23</v>
-      </c>
       <c r="D24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E24" s="1">
         <v>0.22777777777777777</v>
@@ -4491,7 +4420,7 @@
         <v>0.25</v>
       </c>
       <c r="G24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H24" s="1">
         <v>0.25972222222222224</v>
@@ -4500,7 +4429,7 @@
         <v>0.23472222222222219</v>
       </c>
       <c r="J24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K24" s="1">
         <v>0.26041666666666669</v>
@@ -4509,7 +4438,7 @@
         <v>0.23472222222222219</v>
       </c>
       <c r="P24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Q24" s="1">
         <v>0.23958333333333334</v>
@@ -4518,7 +4447,7 @@
         <v>0.2638888888888889</v>
       </c>
       <c r="S24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="T24" s="1">
         <v>0.25416666666666665</v>
@@ -4527,7 +4456,7 @@
         <v>0.24722222222222223</v>
       </c>
       <c r="V24" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="W24" s="1">
         <v>0.24027777777777778</v>
@@ -4536,7 +4465,7 @@
         <v>0.2638888888888889</v>
       </c>
       <c r="Y24" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="Z24" s="1">
         <v>0.24027777777777778</v>
@@ -4545,7 +4474,7 @@
         <v>0.2638888888888889</v>
       </c>
       <c r="AB24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AC24" s="1">
         <v>0.25347222222222221</v>
@@ -4560,7 +4489,7 @@
         <v>0.23750000000000002</v>
       </c>
       <c r="AG24" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AH24" s="1">
         <v>0.25277777777777777</v>
@@ -4572,7 +4501,7 @@
         <v>0.24930555555555556</v>
       </c>
       <c r="AK24" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AL24" s="1">
         <v>0.25625000000000003</v>
@@ -4581,7 +4510,7 @@
         <v>0.24652777777777779</v>
       </c>
       <c r="AN24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AO24" s="1">
         <v>0.24513888888888888</v>
@@ -4592,16 +4521,13 @@
     </row>
     <row r="25" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B25" s="1">
         <v>0.25</v>
       </c>
-      <c r="C25" t="s">
-        <v>23</v>
-      </c>
       <c r="D25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E25" s="1">
         <v>0.27013888888888887</v>
@@ -4610,7 +4536,7 @@
         <v>0.25277777777777777</v>
       </c>
       <c r="G25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H25" s="1">
         <v>0.26111111111111113</v>
@@ -4619,7 +4545,7 @@
         <v>0.23263888888888887</v>
       </c>
       <c r="J25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K25" s="1">
         <v>0.26180555555555557</v>
@@ -4628,7 +4554,7 @@
         <v>0.23263888888888887</v>
       </c>
       <c r="P25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Q25" s="1">
         <v>0.23819444444444446</v>
@@ -4637,7 +4563,7 @@
         <v>0.26527777777777778</v>
       </c>
       <c r="S25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T25" s="1">
         <v>0.25555555555555559</v>
@@ -4646,7 +4572,7 @@
         <v>0.24583333333333335</v>
       </c>
       <c r="V25" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="W25" s="1">
         <v>0.2388888888888889</v>
@@ -4655,7 +4581,7 @@
         <v>0.26527777777777778</v>
       </c>
       <c r="Y25" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="Z25" s="1">
         <v>0.2388888888888889</v>
@@ -4664,7 +4590,7 @@
         <v>0.26527777777777778</v>
       </c>
       <c r="AB25" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AC25" s="1">
         <v>0.25486111111111109</v>
@@ -4679,7 +4605,7 @@
         <v>0.23611111111111113</v>
       </c>
       <c r="AG25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AH25" s="1">
         <v>0.25069444444444444</v>
@@ -4691,7 +4617,7 @@
         <v>0.24722222222222223</v>
       </c>
       <c r="AK25" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AL25" s="1">
         <v>0.25763888888888892</v>
@@ -4700,7 +4626,7 @@
         <v>0.24513888888888888</v>
       </c>
       <c r="AN25" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AO25" s="1">
         <v>0.24305555555555555</v>
@@ -4711,16 +4637,13 @@
     </row>
     <row r="26" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B26" s="1">
         <v>0.25208333333333333</v>
       </c>
-      <c r="C26" t="s">
-        <v>23</v>
-      </c>
       <c r="D26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E26" s="1">
         <v>0.26805555555555555</v>
@@ -4729,7 +4652,7 @@
         <v>0.25555555555555559</v>
       </c>
       <c r="G26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H26" s="1">
         <v>0.26319444444444445</v>
@@ -4738,7 +4661,7 @@
         <v>0.23124999999999998</v>
       </c>
       <c r="J26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K26" s="1">
         <v>0.2638888888888889</v>
@@ -4747,7 +4670,7 @@
         <v>0.23124999999999998</v>
       </c>
       <c r="P26" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q26" s="1">
         <v>0.23680555555555557</v>
@@ -4756,7 +4679,7 @@
         <v>0.26666666666666666</v>
       </c>
       <c r="S26" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T26" s="1">
         <v>0.25833333333333336</v>
@@ -4765,7 +4688,7 @@
         <v>0.24374999999999999</v>
       </c>
       <c r="V26" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="W26" s="1">
         <v>0.23750000000000002</v>
@@ -4774,7 +4697,7 @@
         <v>0.26666666666666666</v>
       </c>
       <c r="Y26" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="Z26" s="1">
         <v>0.23750000000000002</v>
@@ -4783,7 +4706,7 @@
         <v>0.26666666666666666</v>
       </c>
       <c r="AB26" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AC26" s="1">
         <v>0.25625000000000003</v>
@@ -4798,7 +4721,7 @@
         <v>0.23472222222222219</v>
       </c>
       <c r="AG26" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AH26" s="1">
         <v>0.24791666666666667</v>
@@ -4810,7 +4733,7 @@
         <v>0.24444444444444446</v>
       </c>
       <c r="AK26" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AL26" s="1">
         <v>0.25972222222222224</v>
@@ -4819,7 +4742,7 @@
         <v>0.24305555555555555</v>
       </c>
       <c r="AN26" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AO26" s="1">
         <v>0.24097222222222223</v>
@@ -4830,16 +4753,13 @@
     </row>
     <row r="27" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B27" s="1">
         <v>0.25347222222222221</v>
       </c>
-      <c r="C27" t="s">
-        <v>23</v>
-      </c>
       <c r="D27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E27" s="1">
         <v>0.26597222222222222</v>
@@ -4848,7 +4768,7 @@
         <v>0.25763888888888892</v>
       </c>
       <c r="G27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H27" s="1">
         <v>0.26458333333333334</v>
@@ -4857,7 +4777,7 @@
         <v>0.2298611111111111</v>
       </c>
       <c r="J27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K27" s="1">
         <v>0.26527777777777778</v>
@@ -4866,7 +4786,7 @@
         <v>0.2298611111111111</v>
       </c>
       <c r="P27" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Q27" s="1">
         <v>0.23472222222222219</v>
@@ -4875,7 +4795,7 @@
         <v>0.26874999999999999</v>
       </c>
       <c r="S27" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T27" s="1">
         <v>0.25972222222222224</v>
@@ -4884,7 +4804,7 @@
         <v>0.24236111111111111</v>
       </c>
       <c r="V27" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="W27" s="1">
         <v>0.23611111111111113</v>
@@ -4893,7 +4813,7 @@
         <v>0.26805555555555555</v>
       </c>
       <c r="Y27" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Z27" s="1">
         <v>0.23611111111111113</v>
@@ -4902,7 +4822,7 @@
         <v>0.26805555555555555</v>
       </c>
       <c r="AB27" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AC27" s="1">
         <v>0.25763888888888892</v>
@@ -4929,7 +4849,7 @@
         <v>0.24305555555555555</v>
       </c>
       <c r="AK27" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AL27" s="1">
         <v>0.26111111111111113</v>
@@ -4938,7 +4858,7 @@
         <v>0.24166666666666667</v>
       </c>
       <c r="AN27" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AO27" s="1">
         <v>0.23958333333333334</v>
@@ -4949,16 +4869,13 @@
     </row>
     <row r="28" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B28" s="1">
         <v>0.25555555555555559</v>
       </c>
-      <c r="C28" t="s">
-        <v>23</v>
-      </c>
       <c r="D28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E28" s="1">
         <v>0.26250000000000001</v>
@@ -4967,7 +4884,7 @@
         <v>0.26041666666666669</v>
       </c>
       <c r="G28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H28" s="1">
         <v>0.26666666666666666</v>
@@ -4976,7 +4893,7 @@
         <v>0.22777777777777777</v>
       </c>
       <c r="J28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K28" s="1">
         <v>0.26666666666666666</v>
@@ -4985,7 +4902,7 @@
         <v>0.22847222222222222</v>
       </c>
       <c r="P28" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Q28" s="1">
         <v>0.23263888888888887</v>
@@ -4994,7 +4911,7 @@
         <v>0.27083333333333331</v>
       </c>
       <c r="S28" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T28" s="1">
         <v>0.26111111111111113</v>
@@ -5003,7 +4920,7 @@
         <v>0.24097222222222223</v>
       </c>
       <c r="V28" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W28" s="1">
         <v>0.23402777777777781</v>
@@ -5012,7 +4929,7 @@
         <v>0.26944444444444443</v>
       </c>
       <c r="Y28" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Z28" s="1">
         <v>0.23402777777777781</v>
@@ -5021,7 +4938,7 @@
         <v>0.26944444444444443</v>
       </c>
       <c r="AB28" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AC28" s="1">
         <v>0.2590277777777778</v>
@@ -5036,7 +4953,7 @@
         <v>0.23194444444444443</v>
       </c>
       <c r="AG28" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AH28" s="1">
         <v>0.24444444444444446</v>
@@ -5048,7 +4965,7 @@
         <v>0.24097222222222223</v>
       </c>
       <c r="AK28" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AL28" s="1">
         <v>0.26250000000000001</v>
@@ -5057,7 +4974,7 @@
         <v>0.24027777777777778</v>
       </c>
       <c r="AN28" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AO28" s="1">
         <v>0.23819444444444446</v>
@@ -5068,16 +4985,13 @@
     </row>
     <row r="29" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B29" s="1">
         <v>0.25694444444444448</v>
       </c>
-      <c r="C29" t="s">
-        <v>23</v>
-      </c>
       <c r="D29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E29" s="1">
         <v>0.26041666666666669</v>
@@ -5086,7 +5000,7 @@
         <v>0.26319444444444445</v>
       </c>
       <c r="G29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H29" s="1">
         <v>0.26805555555555555</v>
@@ -5096,7 +5010,7 @@
       </c>
       <c r="J29" s="1"/>
       <c r="P29" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q29" s="1">
         <v>0.23055555555555554</v>
@@ -5105,7 +5019,7 @@
         <v>0.2722222222222222</v>
       </c>
       <c r="S29" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="T29" s="1">
         <v>0.26250000000000001</v>
@@ -5114,7 +5028,7 @@
         <v>0.23958333333333334</v>
       </c>
       <c r="V29" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="W29" s="1">
         <v>0.23263888888888887</v>
@@ -5123,7 +5037,7 @@
         <v>0.27083333333333331</v>
       </c>
       <c r="Y29" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="Z29" s="1">
         <v>0.23263888888888887</v>
@@ -5132,7 +5046,7 @@
         <v>0.27083333333333331</v>
       </c>
       <c r="AB29" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AC29" s="1">
         <v>0.26041666666666669</v>
@@ -5147,7 +5061,7 @@
         <v>0.23055555555555554</v>
       </c>
       <c r="AG29" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AH29" s="1">
         <v>0.24236111111111111</v>
@@ -5159,7 +5073,7 @@
         <v>0.2388888888888889</v>
       </c>
       <c r="AK29" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AL29" s="1">
         <v>0.26458333333333334</v>
@@ -5168,7 +5082,7 @@
         <v>0.23819444444444446</v>
       </c>
       <c r="AN29" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AO29" s="1">
         <v>0.23680555555555557</v>
@@ -5179,16 +5093,13 @@
     </row>
     <row r="30" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" t="s">
         <v>34</v>
       </c>
-      <c r="B30" t="s">
-        <v>35</v>
-      </c>
-      <c r="C30" t="s">
-        <v>23</v>
-      </c>
       <c r="D30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E30" s="1">
         <v>0.25694444444444448</v>
@@ -5197,7 +5108,7 @@
         <v>0.26666666666666666</v>
       </c>
       <c r="G30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H30" s="1">
         <v>0.27013888888888887</v>
@@ -5207,16 +5118,16 @@
       </c>
       <c r="J30" s="1"/>
       <c r="P30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Q30" s="1">
         <v>0.22916666666666666</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S30" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="T30" s="1">
         <v>0.2638888888888889</v>
@@ -5225,7 +5136,7 @@
         <v>0.23819444444444446</v>
       </c>
       <c r="V30" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="W30" s="1">
         <v>0.23124999999999998</v>
@@ -5234,7 +5145,7 @@
         <v>0.2722222222222222</v>
       </c>
       <c r="Y30" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="Z30" s="1">
         <v>0.23124999999999998</v>
@@ -5243,7 +5154,7 @@
         <v>0.2722222222222222</v>
       </c>
       <c r="AB30" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AC30" s="1">
         <v>0.26111111111111113</v>
@@ -5258,7 +5169,7 @@
         <v>0.22916666666666666</v>
       </c>
       <c r="AG30" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AH30" s="1">
         <v>0.24097222222222223</v>
@@ -5270,7 +5181,7 @@
         <v>0.23750000000000002</v>
       </c>
       <c r="AK30" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AL30" s="1">
         <v>0.26666666666666666</v>
@@ -5279,7 +5190,7 @@
         <v>0.23680555555555557</v>
       </c>
       <c r="AN30" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AO30" s="1">
         <v>0.23472222222222219</v>
@@ -5290,7 +5201,7 @@
     </row>
     <row r="31" spans="1:42" x14ac:dyDescent="0.2">
       <c r="D31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E31" s="1">
         <v>0.25208333333333333</v>
@@ -5299,16 +5210,16 @@
         <v>0.27152777777777776</v>
       </c>
       <c r="G31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I31" s="1">
         <v>0.22222222222222221</v>
       </c>
       <c r="S31" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="T31" s="1">
         <v>0.26597222222222222</v>
@@ -5317,7 +5228,7 @@
         <v>0.23611111111111113</v>
       </c>
       <c r="V31" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="W31" s="1">
         <v>0.2298611111111111</v>
@@ -5326,7 +5237,7 @@
         <v>0.27361111111111108</v>
       </c>
       <c r="Y31" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z31" s="1">
         <v>0.2298611111111111</v>
@@ -5335,7 +5246,7 @@
         <v>0.27361111111111108</v>
       </c>
       <c r="AB31" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AC31" s="1">
         <v>0.26250000000000001</v>
@@ -5350,7 +5261,7 @@
         <v>0.22777777777777777</v>
       </c>
       <c r="AG31" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AH31" s="1">
         <v>0.23958333333333334</v>
@@ -5362,7 +5273,7 @@
         <v>0.23611111111111113</v>
       </c>
       <c r="AK31" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AL31" s="1">
         <v>0.26805555555555555</v>
@@ -5371,7 +5282,7 @@
         <v>0.23472222222222219</v>
       </c>
       <c r="AN31" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AO31" s="1">
         <v>0.23263888888888887</v>
@@ -5382,17 +5293,17 @@
     </row>
     <row r="32" spans="1:42" x14ac:dyDescent="0.2">
       <c r="D32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E32" s="1">
         <v>0.25</v>
       </c>
       <c r="F32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H32" s="1"/>
       <c r="S32" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="T32" s="1">
         <v>0.2673611111111111</v>
@@ -5401,25 +5312,25 @@
         <v>0.23472222222222219</v>
       </c>
       <c r="V32" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="W32" s="1">
         <v>0.22916666666666666</v>
       </c>
       <c r="X32" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="Y32" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Z32" s="1">
         <v>0.22916666666666666</v>
       </c>
       <c r="AA32" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AB32" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AC32" s="1">
         <v>0.2638888888888889</v>
@@ -5434,7 +5345,7 @@
         <v>0.22638888888888889</v>
       </c>
       <c r="AG32" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AH32" s="1">
         <v>0.23750000000000002</v>
@@ -5446,7 +5357,7 @@
         <v>0.23402777777777781</v>
       </c>
       <c r="AK32" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AL32" s="1">
         <v>0.26944444444444443</v>
@@ -5455,7 +5366,7 @@
         <v>0.23333333333333331</v>
       </c>
       <c r="AN32" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AO32" s="1">
         <v>0.23055555555555554</v>
@@ -5466,7 +5377,7 @@
     </row>
     <row r="33" spans="19:42" x14ac:dyDescent="0.2">
       <c r="S33" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="T33" s="1">
         <v>0.26874999999999999</v>
@@ -5479,13 +5390,13 @@
       <c r="Z33" s="1"/>
       <c r="AA33" s="1"/>
       <c r="AB33" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AC33" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AD33" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AE33" s="1">
         <v>0.22916666666666666</v>
@@ -5494,7 +5405,7 @@
         <v>0.22569444444444445</v>
       </c>
       <c r="AG33" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AH33" s="1">
         <v>0.23402777777777781</v>
@@ -5506,7 +5417,7 @@
         <v>0.23055555555555554</v>
       </c>
       <c r="AK33" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AL33" s="1">
         <v>0.27152777777777776</v>
@@ -5515,18 +5426,18 @@
         <v>0.23194444444444443</v>
       </c>
       <c r="AN33" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AO33" s="1">
         <v>0.22916666666666666</v>
       </c>
       <c r="AP33" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="34" spans="19:42" x14ac:dyDescent="0.2">
       <c r="S34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T34" s="1">
         <v>0.27152777777777776</v>
@@ -5543,7 +5454,7 @@
       <c r="AE34" s="1"/>
       <c r="AF34" s="1"/>
       <c r="AG34" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AH34" s="1">
         <v>0.23263888888888887</v>
@@ -5555,23 +5466,23 @@
         <v>0.22916666666666666</v>
       </c>
       <c r="AK34" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AL34" s="1">
         <v>0.27361111111111108</v>
       </c>
-      <c r="AM34" s="1" t="s">
-        <v>291</v>
+      <c r="AM34" s="1">
+        <v>0.22916666666666666</v>
       </c>
       <c r="AO34" s="1"/>
       <c r="AP34" s="1"/>
     </row>
     <row r="35" spans="19:42" x14ac:dyDescent="0.2">
       <c r="S35" t="s">
+        <v>188</v>
+      </c>
+      <c r="T35" t="s">
         <v>189</v>
-      </c>
-      <c r="T35" t="s">
-        <v>190</v>
       </c>
       <c r="U35" s="1">
         <v>0.22916666666666666</v>
@@ -5581,7 +5492,7 @@
       <c r="AD35" s="1"/>
       <c r="AF35" s="1"/>
       <c r="AG35" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AH35" s="1">
         <v>0.23055555555555554</v>
@@ -5599,7 +5510,7 @@
     </row>
     <row r="36" spans="19:42" x14ac:dyDescent="0.2">
       <c r="AG36" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AH36" s="1">
         <v>0.22777777777777777</v>
@@ -5617,7 +5528,7 @@
     </row>
     <row r="37" spans="19:42" x14ac:dyDescent="0.2">
       <c r="AG37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AH37" s="1">
         <v>0.22569444444444445</v>
@@ -5635,7 +5546,7 @@
     </row>
     <row r="38" spans="19:42" x14ac:dyDescent="0.2">
       <c r="AG38" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH38" s="1">
         <v>0.29097222222222224</v>
@@ -5653,7 +5564,7 @@
     </row>
     <row r="39" spans="19:42" x14ac:dyDescent="0.2">
       <c r="AG39" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AH39" s="1">
         <v>0.29305555555555557</v>
@@ -5671,10 +5582,10 @@
     </row>
     <row r="40" spans="19:42" x14ac:dyDescent="0.2">
       <c r="AG40" t="s">
+        <v>285</v>
+      </c>
+      <c r="AH40" t="s">
         <v>286</v>
-      </c>
-      <c r="AH40" t="s">
-        <v>287</v>
       </c>
       <c r="AI40" s="1">
         <v>0.24861111111111112</v>
@@ -5687,6 +5598,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
     <mergeCell ref="AK1:AM1"/>
     <mergeCell ref="AN1:AP1"/>
     <mergeCell ref="AQ1:AS1"/>
@@ -5695,12 +5612,6 @@
     <mergeCell ref="Y1:AA1"/>
     <mergeCell ref="AB1:AF1"/>
     <mergeCell ref="AG1:AJ1"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="P1:R1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5726,27 +5637,27 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B2" t="s">
         <v>336</v>
       </c>
-      <c r="B2" t="s">
-        <v>337</v>
-      </c>
       <c r="C2" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D2" t="s">
         <v>336</v>
-      </c>
-      <c r="D2" t="s">
-        <v>337</v>
       </c>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3" s="1">
         <v>0.24305555555555555</v>
@@ -5755,7 +5666,7 @@
         <v>0.26597222222222222</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E3" s="1">
         <v>0.9375</v>
@@ -5764,14 +5675,14 @@
         <v>0.9868055555555556</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B4" s="1">
         <v>0.24583333333333335</v>
@@ -5794,7 +5705,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B5" s="1">
         <v>0.24861111111111112</v>
@@ -5816,7 +5727,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B6" s="1">
         <v>0.25138888888888888</v>
@@ -5837,7 +5748,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B7" s="1">
         <v>0.25416666666666665</v>
@@ -5859,7 +5770,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B8" s="1">
         <v>0.25625000000000003</v>
@@ -5881,7 +5792,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B9" s="1">
         <v>0.2590277777777778</v>
@@ -5903,7 +5814,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B10" s="1">
         <v>0.26250000000000001</v>
@@ -5927,7 +5838,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B11" s="1">
         <v>0.26666666666666666</v>
@@ -5949,7 +5860,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B12" s="1">
         <v>0.27013888888888887</v>
@@ -5971,7 +5882,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B13" s="1">
         <v>0.27638888888888885</v>
@@ -5993,7 +5904,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B14" s="1">
         <v>0.28055555555555556</v>
@@ -6015,16 +5926,16 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>346</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>347</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>348</v>
       </c>
       <c r="C15" s="1">
         <v>0.25</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E15" s="1">
         <v>0.9375</v>
@@ -6037,7 +5948,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B16" s="1">
         <v>1</v>
@@ -6067,37 +5978,37 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>348</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="I17" s="1" t="s">
         <v>356</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>357</v>
       </c>
       <c r="L17" s="1"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B18" s="1">
         <v>0.30763888888888891</v>
@@ -6127,7 +6038,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B19" s="1">
         <v>0.30208333333333331</v>
@@ -6157,7 +6068,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B20" s="1">
         <v>0.29375000000000001</v>
@@ -6187,7 +6098,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B21" s="1">
         <v>0.28958333333333336</v>
@@ -6217,7 +6128,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B22" s="1">
         <v>1</v>
@@ -6253,49 +6164,49 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="H23" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="I23" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="J23" t="s">
+        <v>354</v>
+      </c>
+      <c r="K23" t="s">
         <v>370</v>
-      </c>
-      <c r="J23" t="s">
-        <v>355</v>
-      </c>
-      <c r="K23" t="s">
-        <v>371</v>
       </c>
       <c r="L23" s="1"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B24" s="1">
         <v>0.3215277777777778</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D24" s="1">
         <v>0.4465277777777778</v>
@@ -6307,7 +6218,7 @@
         <v>0.52986111111111112</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H24" s="1">
         <v>0.57152777777777775</v>
@@ -6325,13 +6236,13 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B25" s="1">
         <v>0.30972222222222223</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D25" s="1">
         <v>0.43472222222222223</v>
@@ -6343,7 +6254,7 @@
         <v>0.5180555555555556</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H25" s="1">
         <v>0.55972222222222223</v>
@@ -6361,13 +6272,13 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B26" s="1">
         <v>0.30416666666666664</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D26" s="1">
         <v>0.4291666666666667</v>
@@ -6379,7 +6290,7 @@
         <v>0.51250000000000007</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H26" s="1">
         <v>0.5541666666666667</v>
@@ -6397,13 +6308,13 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B27" s="1">
         <v>0.29583333333333334</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D27" s="1">
         <v>0.42083333333333334</v>
@@ -6415,7 +6326,7 @@
         <v>0.50416666666666665</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H27" s="1">
         <v>0.54583333333333328</v>
@@ -6433,7 +6344,7 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B28" s="1">
         <v>0.29166666666666669</v>
@@ -6470,7 +6381,7 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B29" s="1">
         <v>1</v>
@@ -6504,7 +6415,7 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B30" s="1">
         <v>0.41666666666666669</v>
@@ -6538,7 +6449,7 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B31" s="1">
         <v>0.41875000000000001</v>
@@ -6547,7 +6458,7 @@
         <v>0.4604166666666667</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E31" s="1">
         <v>0.54375000000000007</v>
@@ -6565,14 +6476,14 @@
         <v>0.7104166666666667</v>
       </c>
       <c r="J31" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B32" s="1">
         <v>0.43124999999999997</v>
@@ -6581,7 +6492,7 @@
         <v>0.47291666666666665</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E32" s="1">
         <v>0.55625000000000002</v>
@@ -6599,14 +6510,14 @@
         <v>0.72291666666666676</v>
       </c>
       <c r="J32" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B33" s="1">
         <v>0.4368055555555555</v>
@@ -6615,7 +6526,7 @@
         <v>0.47847222222222219</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E33" s="1">
         <v>0.56180555555555556</v>
@@ -6633,14 +6544,14 @@
         <v>0.7284722222222223</v>
       </c>
       <c r="J33" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B34" s="1">
         <v>0.44513888888888892</v>
@@ -6649,7 +6560,7 @@
         <v>0.48680555555555555</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E34" s="1">
         <v>0.57013888888888886</v>
@@ -6667,44 +6578,44 @@
         <v>0.7368055555555556</v>
       </c>
       <c r="J34" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>366</v>
-      </c>
       <c r="D35" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="I35" t="s">
         <v>376</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
         <v>377</v>
-      </c>
-      <c r="J35" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B36" s="1">
         <v>1</v>
@@ -6730,33 +6641,33 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="D37" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="E37" s="1" t="s">
+      <c r="F37" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="G37" s="1" t="s">
+      <c r="H37" s="1" t="s">
         <v>382</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B38" s="1">
         <v>0.40486111111111112</v>
@@ -6782,7 +6693,7 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B39" s="1">
         <v>0.39305555555555555</v>
@@ -6808,7 +6719,7 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B40" s="1">
         <v>0.38750000000000001</v>
@@ -6834,7 +6745,7 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B41" s="1">
         <v>0.37916666666666665</v>
@@ -6860,7 +6771,7 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B42" s="1">
         <v>0.375</v>
@@ -6886,7 +6797,7 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -6912,7 +6823,7 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B44" s="1">
         <v>0.375</v>
@@ -6938,7 +6849,7 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B45" s="1">
         <v>0.37708333333333338</v>
@@ -6964,7 +6875,7 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B46" s="1">
         <v>0.38958333333333334</v>
@@ -6990,7 +6901,7 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B47" s="1">
         <v>0.39513888888888887</v>
@@ -7016,7 +6927,7 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B48" s="1">
         <v>0.40347222222222223</v>
@@ -7042,28 +6953,28 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B49" t="s">
+        <v>378</v>
+      </c>
+      <c r="C49" t="s">
         <v>379</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
+        <v>366</v>
+      </c>
+      <c r="E49" t="s">
         <v>380</v>
       </c>
-      <c r="D49" t="s">
-        <v>367</v>
-      </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
+        <v>354</v>
+      </c>
+      <c r="G49" t="s">
         <v>381</v>
       </c>
-      <c r="F49" t="s">
-        <v>355</v>
-      </c>
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>382</v>
-      </c>
-      <c r="H49" t="s">
-        <v>383</v>
       </c>
     </row>
   </sheetData>
